--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_167.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_167.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,610 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5079365079365079</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(62.42, 64.62)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(6.84, 16.08)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_67</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1281818181818182</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E', 'C#:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.125</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'A:min', 'F']]</t>
+          <t>[['G:7', 'C:min', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(5.216719, 11.404837)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:min', 'C:7', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(94.511587, 99.352947)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:26.480000', '0:00:31.820000'), ('0:00:25.800000', '0:00:29.460000'), ('0:04:13.840000', '0:04:17.600000'), ('0:00:14.620000', '0:00:19.560000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:34.560000', '0:00:36.420000'), ('0:00:08.300000', '0:00:12.960000'), ('0:00:41.700000', '0:00:57.940000'), ('0:00:00.780000', '0:00:05.260000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1152173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A'], ['A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D'], ['D', 'A', 'D']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(2.408196, 13.878853), (10.953139, 19.672232)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(46.93228, 54.037586), (11.219991, 14.772644)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2039473684210526</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(5.88, 11.46), (16.24, 18.88)]</t>
+          <t>[['C/9', 'G', 'C/5'], ['G/5', 'C/9', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(80.8, 91.18), (79.04, 86.54)]</t>
+          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:03.049795', '0:00:10.723990'), ('0:00:00.727609', '0:00:08.204625')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4740740740740741</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(45.58, 49.6)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.3, 19.52)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:01.150000', '0:00:06.536000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_112</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1375</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1217948717948718</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A']]</t>
+          <t>[['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(70.203514, 87.246961)]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.421247, 4.824512)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:13.740000', '0:00:22.560000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:10.380000', '0:00:16.320000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_212</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1083333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>[['C:min', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(57.92, 60.68)]</t>
+          <t>[['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(23.46, 26.48)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:07.960000', '0:00:13.120000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:12.560000', '0:00:17.200000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2003577817531306</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_280</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3513071895424837</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(36.5, 41.66)]</t>
+          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(91.84, 103.94)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_81</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(59.64, 62.58)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(19.26, 22.26)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1106719367588933</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/b7'], ['C', 'C/7', 'C/b7']]</t>
-        </is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3625</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Ab'], ['Ab', 'Ab', 'Ab']]</t>
+          <t>[['Bb/3', 'Eb:maj', 'Bb/3']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(34.041, 38.588), (52.386, 56.294)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(22.01, 26.6), (1.67, 9.17)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:38.041000', '0:00:42.375000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_0</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1055555555555556</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_20</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Db', 'Db', 'Db:7', 'Gb']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(18.84, 21.61)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(22.947687, 31.49263)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:21.620000', '0:01:43.560000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3071428571428572</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Gb:7', 'Cb', 'Gb:7', 'Cb']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(45.522, 50.551)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(14.44, 33.82)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:25.260000', '0:00:45.540000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_105</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_215</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:maj'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.34, 15.04), (20.56, 23.94)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(74.38, 84.38), (72.82, 80.0)]</t>
+          <t>[('0:00:09.140000', '0:01:50.260000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:07.480000', '0:01:36.940000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1441647597254004</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B', 'E', 'E/7']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(9.201473, 13.148866)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(2.676666, 13.717755)]</t>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_227</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07670454545454546</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'F:min']]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(20.045192, 25.141972)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(156.152, 159.022)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_70</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_183</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1847507331378299</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:maj/F#', 'E:min/G', 'B:maj/F#']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'G:min', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(72.88, 74.72)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(124.737522, 131.471309)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
